--- a/Samples/Sample-HorizonUserReport.xlsx
+++ b/Samples/Sample-HorizonUserReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reports\Usage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C15844-88C2-465A-8921-1496D5CBF072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1F03D-B3E1-4B4D-8318-B680E1A57FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="124">
   <si>
     <t>UserLogOnName</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Mace.Windu@chrislab.local</t>
   </si>
   <si>
-    <t>Administrator</t>
-  </si>
-  <si>
     <t>Domain Users</t>
   </si>
   <si>
@@ -293,70 +290,10 @@
     <t>Prusa Slicer,NotePad</t>
   </si>
   <si>
-    <t>krbtgt</t>
-  </si>
-  <si>
-    <t>ControlUpSRV</t>
-  </si>
-  <si>
-    <t>vCenterAuth</t>
-  </si>
-  <si>
-    <t>vCenterDJ</t>
-  </si>
-  <si>
-    <t>AppVolvCenter</t>
-  </si>
-  <si>
-    <t>AppVolLDAP</t>
-  </si>
-  <si>
-    <t>AppVolHRZ</t>
-  </si>
-  <si>
-    <t>HRZvCenter</t>
-  </si>
-  <si>
-    <t>HRZRecordingLDAP</t>
-  </si>
-  <si>
-    <t>HRZRecordingAgent</t>
-  </si>
-  <si>
     <t>HRZTest</t>
   </si>
   <si>
     <t>HRZTest@chrislab.local</t>
-  </si>
-  <si>
-    <t>HRZWSOSRV</t>
-  </si>
-  <si>
-    <t>WSOAccess</t>
-  </si>
-  <si>
-    <t>WSODomainBind</t>
-  </si>
-  <si>
-    <t>WSOAccessHRZ</t>
-  </si>
-  <si>
-    <t>JenkinsSRV</t>
-  </si>
-  <si>
-    <t>LoginVSIBind</t>
-  </si>
-  <si>
-    <t>MDT_VMware</t>
-  </si>
-  <si>
-    <t>MDT_DJ</t>
-  </si>
-  <si>
-    <t>LoginVSITester</t>
-  </si>
-  <si>
-    <t>AppVolRep</t>
   </si>
   <si>
     <t>Darth.Vader</t>
@@ -810,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,26 +849,91 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:23">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="3" spans="1:23">
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -946,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -961,7 +963,7 @@
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
         <v>34</v>
@@ -987,16 +989,16 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -1011,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -1026,7 +1028,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
         <v>34</v>
@@ -1052,16 +1054,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -1091,7 +1093,7 @@
         <v>33</v>
       </c>
       <c r="Q6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
         <v>34</v>
@@ -1113,20 +1115,26 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45090.538495370398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -1141,7 +1149,7 @@
         <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -1156,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="Q7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
         <v>34</v>
@@ -1179,25 +1187,25 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
-        <v>45090.538495370398</v>
+        <v>45100.349513888897</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -1212,7 +1220,7 @@
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
         <v>30</v>
@@ -1227,7 +1235,7 @@
         <v>33</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
         <v>34</v>
@@ -1250,25 +1258,25 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
-        <v>45100.349513888897</v>
+        <v>45099.620949074102</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -1283,7 +1291,7 @@
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
@@ -1298,7 +1306,7 @@
         <v>33</v>
       </c>
       <c r="Q9" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R9" t="s">
         <v>34</v>
@@ -1320,26 +1328,20 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45099.620949074102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -1354,7 +1356,7 @@
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -1369,7 +1371,7 @@
         <v>33</v>
       </c>
       <c r="Q10" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R10" t="s">
         <v>34</v>
@@ -1395,16 +1397,16 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -1419,7 +1421,7 @@
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
         <v>30</v>
@@ -1434,7 +1436,7 @@
         <v>33</v>
       </c>
       <c r="Q11" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R11" t="s">
         <v>34</v>
@@ -1460,16 +1462,16 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
@@ -1484,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>30</v>
@@ -1499,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="Q12" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
         <v>34</v>
@@ -1521,20 +1523,26 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45099.642037037003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -1549,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
         <v>30</v>
@@ -1564,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R13" t="s">
         <v>34</v>
@@ -1587,25 +1595,25 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1">
-        <v>45099.642037037003</v>
+        <v>45099.642592592601</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
@@ -1620,7 +1628,7 @@
         <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
         <v>30</v>
@@ -1635,7 +1643,7 @@
         <v>33</v>
       </c>
       <c r="Q14" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R14" t="s">
         <v>34</v>
@@ -1658,25 +1666,25 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1">
-        <v>45099.642592592601</v>
+        <v>45099.643703703703</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
@@ -1691,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
         <v>30</v>
@@ -1706,7 +1714,7 @@
         <v>33</v>
       </c>
       <c r="Q15" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R15" t="s">
         <v>34</v>
@@ -1729,25 +1737,25 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1">
-        <v>45099.643703703703</v>
+        <v>45099.644201388903</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
@@ -1762,7 +1770,7 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s">
         <v>30</v>
@@ -1777,7 +1785,7 @@
         <v>33</v>
       </c>
       <c r="Q16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
         <v>34</v>
@@ -1800,25 +1808,25 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1">
-        <v>45099.644201388903</v>
+        <v>45099.644861111097</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
@@ -1833,7 +1841,7 @@
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
         <v>30</v>
@@ -1848,7 +1856,7 @@
         <v>33</v>
       </c>
       <c r="Q17" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R17" t="s">
         <v>34</v>
@@ -1871,67 +1879,40 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1">
-        <v>45099.644861111097</v>
+        <v>45086.6019675926</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>144</v>
-      </c>
-      <c r="R18" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="T18" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
         <v>36</v>
@@ -1945,28 +1926,58 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
         <v>87</v>
       </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>88</v>
-      </c>
-      <c r="U19" t="s">
-        <v>89</v>
       </c>
       <c r="V19" t="s">
         <v>36</v>
@@ -1980,28 +1991,58 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
       </c>
       <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
         <v>87</v>
       </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>87</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>88</v>
-      </c>
-      <c r="U20" t="s">
-        <v>89</v>
       </c>
       <c r="V20" t="s">
         <v>36</v>
@@ -2015,28 +2056,58 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
       <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" t="s">
         <v>87</v>
       </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>87</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>88</v>
-      </c>
-      <c r="U21" t="s">
-        <v>89</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -2050,133 +2121,271 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" t="s">
         <v>87</v>
       </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="U22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45090.538495370398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" t="s">
         <v>87</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U23" t="s">
         <v>88</v>
       </c>
-      <c r="U22" t="s">
-        <v>89</v>
-      </c>
-      <c r="V22" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45100.349513888897</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" t="s">
         <v>87</v>
       </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="U24" t="s">
+        <v>88</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45099.620949074102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" t="s">
         <v>87</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U25" t="s">
         <v>88</v>
-      </c>
-      <c r="U23" t="s">
-        <v>89</v>
-      </c>
-      <c r="V23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" t="s">
-        <v>87</v>
-      </c>
-      <c r="T24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" t="s">
-        <v>89</v>
-      </c>
-      <c r="V24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-      <c r="T25" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" t="s">
-        <v>89</v>
       </c>
       <c r="V25" t="s">
         <v>36</v>
@@ -2190,28 +2399,58 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
       <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>123</v>
+      </c>
+      <c r="R26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" t="s">
         <v>87</v>
       </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="s">
-        <v>87</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>88</v>
-      </c>
-      <c r="U26" t="s">
-        <v>89</v>
       </c>
       <c r="V26" t="s">
         <v>36</v>
@@ -2225,28 +2464,58 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
       <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" t="s">
         <v>87</v>
       </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
-        <v>87</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>88</v>
-      </c>
-      <c r="U27" t="s">
-        <v>89</v>
       </c>
       <c r="V27" t="s">
         <v>36</v>
@@ -2260,63 +2529,129 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
       <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>123</v>
+      </c>
+      <c r="R28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" t="s">
         <v>87</v>
       </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="U28" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45099.642037037003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" t="s">
         <v>87</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U29" t="s">
         <v>88</v>
-      </c>
-      <c r="U28" t="s">
-        <v>89</v>
-      </c>
-      <c r="V28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
-      </c>
-      <c r="T29" t="s">
-        <v>88</v>
-      </c>
-      <c r="U29" t="s">
-        <v>89</v>
       </c>
       <c r="V29" t="s">
         <v>36</v>
@@ -2327,145 +2662,280 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
-        <v>45086.6019675926</v>
+        <v>45099.642592592601</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" t="s">
         <v>87</v>
       </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="U30" t="s">
+        <v>88</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45099.643703703703</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>123</v>
+      </c>
+      <c r="R31" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" t="s">
         <v>87</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U31" t="s">
         <v>88</v>
       </c>
-      <c r="U30" t="s">
-        <v>89</v>
-      </c>
-      <c r="V30" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="V31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45099.644201388903</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>123</v>
+      </c>
+      <c r="R32" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" t="s">
         <v>87</v>
       </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="U32" t="s">
+        <v>88</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45099.644861111097</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>123</v>
+      </c>
+      <c r="R33" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" t="s">
         <v>87</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U33" t="s">
         <v>88</v>
-      </c>
-      <c r="U31" t="s">
-        <v>89</v>
-      </c>
-      <c r="V31" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
-        <v>87</v>
-      </c>
-      <c r="T32" t="s">
-        <v>88</v>
-      </c>
-      <c r="U32" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" t="s">
-        <v>36</v>
-      </c>
-      <c r="W32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
-        <v>87</v>
-      </c>
-      <c r="T33" t="s">
-        <v>88</v>
-      </c>
-      <c r="U33" t="s">
-        <v>89</v>
       </c>
       <c r="V33" t="s">
         <v>36</v>
@@ -2479,93 +2949,99 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
       <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" t="s">
+        <v>93</v>
+      </c>
+      <c r="S34" t="s">
+        <v>94</v>
+      </c>
+      <c r="T34" t="s">
         <v>87</v>
       </c>
-      <c r="I34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="U34" t="s">
+        <v>88</v>
+      </c>
+      <c r="V34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45099.644201388903</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>95</v>
+      </c>
+      <c r="T35" t="s">
         <v>87</v>
       </c>
-      <c r="T34" t="s">
-        <v>88</v>
-      </c>
-      <c r="U34" t="s">
-        <v>89</v>
-      </c>
-      <c r="V34" t="s">
-        <v>36</v>
-      </c>
-      <c r="W34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>144</v>
-      </c>
-      <c r="R35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S35" t="s">
-        <v>35</v>
-      </c>
-      <c r="T35" t="s">
-        <v>88</v>
-      </c>
       <c r="U35" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V35" t="s">
         <v>36</v>
@@ -2579,31 +3055,31 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M36" t="s">
         <v>30</v>
@@ -2618,7 +3094,7 @@
         <v>33</v>
       </c>
       <c r="Q36" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R36" t="s">
         <v>34</v>
@@ -2627,16 +3103,16 @@
         <v>35</v>
       </c>
       <c r="T36" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U36" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V36" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W36" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -2644,31 +3120,31 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s">
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
         <v>30</v>
@@ -2683,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="Q37" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R37" t="s">
         <v>34</v>
@@ -2692,16 +3168,16 @@
         <v>35</v>
       </c>
       <c r="T37" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U37" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V37" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W37" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -2709,25 +3185,25 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s">
         <v>28</v>
@@ -2748,7 +3224,7 @@
         <v>33</v>
       </c>
       <c r="Q38" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R38" t="s">
         <v>34</v>
@@ -2757,54 +3233,48 @@
         <v>35</v>
       </c>
       <c r="T38" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U38" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V38" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W38" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45090.538495370398</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
+      <c r="B39" t="s">
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
         <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M39" t="s">
         <v>30</v>
@@ -2819,7 +3289,7 @@
         <v>33</v>
       </c>
       <c r="Q39" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R39" t="s">
         <v>34</v>
@@ -2828,54 +3298,54 @@
         <v>35</v>
       </c>
       <c r="T39" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U39" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V39" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W39" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1">
-        <v>45100.349513888897</v>
+        <v>45090.538495370398</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s">
         <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M40" t="s">
         <v>30</v>
@@ -2890,7 +3360,7 @@
         <v>33</v>
       </c>
       <c r="Q40" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R40" t="s">
         <v>34</v>
@@ -2899,120 +3369,126 @@
         <v>35</v>
       </c>
       <c r="T40" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U40" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V40" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W40" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45100.349513888897</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>123</v>
+      </c>
+      <c r="R41" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" t="s">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s">
+        <v>97</v>
+      </c>
+      <c r="W41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>45099.620949074102</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>56</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>56</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>57</v>
       </c>
-      <c r="H41" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
         <v>29</v>
       </c>
-      <c r="M41" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>144</v>
-      </c>
-      <c r="R41" t="s">
-        <v>34</v>
-      </c>
-      <c r="S41" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" t="s">
-        <v>88</v>
-      </c>
-      <c r="U41" t="s">
-        <v>89</v>
-      </c>
-      <c r="V41" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" t="s">
-        <v>60</v>
-      </c>
       <c r="M42" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3502,7 @@
         <v>33</v>
       </c>
       <c r="Q42" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R42" t="s">
         <v>34</v>
@@ -3035,16 +3511,16 @@
         <v>35</v>
       </c>
       <c r="T42" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U42" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V42" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W42" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3052,31 +3528,31 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s">
         <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M43" t="s">
         <v>30</v>
@@ -3091,7 +3567,7 @@
         <v>33</v>
       </c>
       <c r="Q43" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R43" t="s">
         <v>34</v>
@@ -3100,16 +3576,16 @@
         <v>35</v>
       </c>
       <c r="T43" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U43" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V43" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W43" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3117,103 +3593,97 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>123</v>
+      </c>
+      <c r="R44" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s">
+        <v>97</v>
+      </c>
+      <c r="W44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>63</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>64</v>
       </c>
-      <c r="H44" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
         <v>29</v>
       </c>
-      <c r="M44" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>144</v>
-      </c>
-      <c r="R44" t="s">
-        <v>34</v>
-      </c>
-      <c r="S44" t="s">
-        <v>35</v>
-      </c>
-      <c r="T44" t="s">
-        <v>88</v>
-      </c>
-      <c r="U44" t="s">
-        <v>89</v>
-      </c>
-      <c r="V44" t="s">
-        <v>36</v>
-      </c>
-      <c r="W44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45099.642037037003</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" t="s">
-        <v>69</v>
-      </c>
       <c r="M45" t="s">
         <v>30</v>
       </c>
@@ -3227,7 +3697,7 @@
         <v>33</v>
       </c>
       <c r="Q45" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R45" t="s">
         <v>34</v>
@@ -3236,54 +3706,54 @@
         <v>35</v>
       </c>
       <c r="T45" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U45" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V45" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W45" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1">
-        <v>45099.642592592601</v>
+        <v>45099.642037037003</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s">
         <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M46" t="s">
         <v>30</v>
@@ -3298,7 +3768,7 @@
         <v>33</v>
       </c>
       <c r="Q46" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R46" t="s">
         <v>34</v>
@@ -3307,54 +3777,54 @@
         <v>35</v>
       </c>
       <c r="T46" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U46" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V46" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W46" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1">
-        <v>45099.643703703703</v>
+        <v>45099.642592592601</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s">
         <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M47" t="s">
         <v>30</v>
@@ -3369,7 +3839,7 @@
         <v>33</v>
       </c>
       <c r="Q47" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R47" t="s">
         <v>34</v>
@@ -3378,54 +3848,54 @@
         <v>35</v>
       </c>
       <c r="T47" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U47" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V47" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W47" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
-        <v>45099.644201388903</v>
+        <v>45099.643703703703</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s">
         <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M48" t="s">
         <v>30</v>
@@ -3440,7 +3910,7 @@
         <v>33</v>
       </c>
       <c r="Q48" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R48" t="s">
         <v>34</v>
@@ -3449,1426 +3919,158 @@
         <v>35</v>
       </c>
       <c r="T48" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U48" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V48" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W48" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45099.644201388903</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>123</v>
+      </c>
+      <c r="R49" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" t="s">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s">
+        <v>97</v>
+      </c>
+      <c r="W49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <v>45099.644861111097</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>83</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>84</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>84</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>85</v>
       </c>
-      <c r="H49" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" t="s">
-        <v>87</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="H50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
         <v>53</v>
       </c>
-      <c r="M49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>144</v>
-      </c>
-      <c r="R49" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" t="s">
-        <v>35</v>
-      </c>
-      <c r="T49" t="s">
-        <v>88</v>
-      </c>
-      <c r="U49" t="s">
-        <v>89</v>
-      </c>
-      <c r="V49" t="s">
-        <v>36</v>
-      </c>
-      <c r="W49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" t="s">
-        <v>87</v>
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>123</v>
+      </c>
+      <c r="R50" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" t="s">
+        <v>35</v>
       </c>
       <c r="T50" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="U50" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="V50" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="W50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" t="s">
-        <v>87</v>
-      </c>
-      <c r="T51" t="s">
-        <v>88</v>
-      </c>
-      <c r="U51" t="s">
-        <v>89</v>
-      </c>
-      <c r="V51" t="s">
-        <v>36</v>
-      </c>
-      <c r="W51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" t="s">
-        <v>87</v>
-      </c>
-      <c r="T52" t="s">
-        <v>88</v>
-      </c>
-      <c r="U52" t="s">
-        <v>89</v>
-      </c>
-      <c r="V52" t="s">
-        <v>36</v>
-      </c>
-      <c r="W52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>87</v>
-      </c>
-      <c r="I53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" t="s">
-        <v>87</v>
-      </c>
-      <c r="T53" t="s">
-        <v>88</v>
-      </c>
-      <c r="U53" t="s">
-        <v>89</v>
-      </c>
-      <c r="V53" t="s">
-        <v>36</v>
-      </c>
-      <c r="W53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" t="s">
-        <v>87</v>
-      </c>
-      <c r="T54" t="s">
-        <v>88</v>
-      </c>
-      <c r="U54" t="s">
-        <v>89</v>
-      </c>
-      <c r="V54" t="s">
-        <v>36</v>
-      </c>
-      <c r="W54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" t="s">
-        <v>87</v>
-      </c>
-      <c r="T55" t="s">
-        <v>88</v>
-      </c>
-      <c r="U55" t="s">
-        <v>89</v>
-      </c>
-      <c r="V55" t="s">
-        <v>36</v>
-      </c>
-      <c r="W55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" t="s">
-        <v>87</v>
-      </c>
-      <c r="I56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" t="s">
-        <v>87</v>
-      </c>
-      <c r="K56" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" t="s">
-        <v>31</v>
-      </c>
-      <c r="O56" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>144</v>
-      </c>
-      <c r="R56" t="s">
-        <v>114</v>
-      </c>
-      <c r="S56" t="s">
-        <v>115</v>
-      </c>
-      <c r="T56" t="s">
-        <v>88</v>
-      </c>
-      <c r="U56" t="s">
-        <v>89</v>
-      </c>
-      <c r="V56" t="s">
-        <v>36</v>
-      </c>
-      <c r="W56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45099.644201388903</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" t="s">
-        <v>116</v>
-      </c>
-      <c r="T57" t="s">
-        <v>88</v>
-      </c>
-      <c r="U57" t="s">
-        <v>36</v>
-      </c>
-      <c r="V57" t="s">
-        <v>36</v>
-      </c>
-      <c r="W57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s">
-        <v>117</v>
-      </c>
-      <c r="I58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" t="s">
-        <v>117</v>
-      </c>
-      <c r="K58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" t="s">
-        <v>29</v>
-      </c>
-      <c r="M58" t="s">
-        <v>30</v>
-      </c>
-      <c r="N58" t="s">
-        <v>31</v>
-      </c>
-      <c r="O58" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>144</v>
-      </c>
-      <c r="R58" t="s">
-        <v>34</v>
-      </c>
-      <c r="S58" t="s">
-        <v>35</v>
-      </c>
-      <c r="T58" t="s">
-        <v>36</v>
-      </c>
-      <c r="U58" t="s">
-        <v>36</v>
-      </c>
-      <c r="V58" t="s">
-        <v>118</v>
-      </c>
-      <c r="W58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
-      <c r="H59" t="s">
-        <v>117</v>
-      </c>
-      <c r="I59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" t="s">
-        <v>117</v>
-      </c>
-      <c r="K59" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" t="s">
-        <v>40</v>
-      </c>
-      <c r="M59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" t="s">
-        <v>31</v>
-      </c>
-      <c r="O59" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>144</v>
-      </c>
-      <c r="R59" t="s">
-        <v>34</v>
-      </c>
-      <c r="S59" t="s">
-        <v>35</v>
-      </c>
-      <c r="T59" t="s">
-        <v>36</v>
-      </c>
-      <c r="U59" t="s">
-        <v>36</v>
-      </c>
-      <c r="V59" t="s">
-        <v>118</v>
-      </c>
-      <c r="W59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="B60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" t="s">
-        <v>117</v>
-      </c>
-      <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
-        <v>117</v>
-      </c>
-      <c r="K60" t="s">
-        <v>28</v>
-      </c>
-      <c r="L60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M60" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" t="s">
-        <v>31</v>
-      </c>
-      <c r="O60" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>144</v>
-      </c>
-      <c r="R60" t="s">
-        <v>34</v>
-      </c>
-      <c r="S60" t="s">
-        <v>35</v>
-      </c>
-      <c r="T60" t="s">
-        <v>36</v>
-      </c>
-      <c r="U60" t="s">
-        <v>36</v>
-      </c>
-      <c r="V60" t="s">
-        <v>118</v>
-      </c>
-      <c r="W60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" t="s">
-        <v>117</v>
-      </c>
-      <c r="K61" t="s">
-        <v>28</v>
-      </c>
-      <c r="L61" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>144</v>
-      </c>
-      <c r="R61" t="s">
-        <v>34</v>
-      </c>
-      <c r="S61" t="s">
-        <v>35</v>
-      </c>
-      <c r="T61" t="s">
-        <v>36</v>
-      </c>
-      <c r="U61" t="s">
-        <v>36</v>
-      </c>
-      <c r="V61" t="s">
-        <v>118</v>
-      </c>
-      <c r="W61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45090.538495370398</v>
-      </c>
-      <c r="C62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" t="s">
-        <v>117</v>
-      </c>
-      <c r="K62" t="s">
-        <v>28</v>
-      </c>
-      <c r="L62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>144</v>
-      </c>
-      <c r="R62" t="s">
-        <v>34</v>
-      </c>
-      <c r="S62" t="s">
-        <v>35</v>
-      </c>
-      <c r="T62" t="s">
-        <v>36</v>
-      </c>
-      <c r="U62" t="s">
-        <v>36</v>
-      </c>
-      <c r="V62" t="s">
-        <v>118</v>
-      </c>
-      <c r="W62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="A63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45100.349513888897</v>
-      </c>
-      <c r="C63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" t="s">
-        <v>117</v>
-      </c>
-      <c r="K63" t="s">
-        <v>28</v>
-      </c>
-      <c r="L63" t="s">
-        <v>53</v>
-      </c>
-      <c r="M63" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" t="s">
-        <v>31</v>
-      </c>
-      <c r="O63" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>144</v>
-      </c>
-      <c r="R63" t="s">
-        <v>34</v>
-      </c>
-      <c r="S63" t="s">
-        <v>35</v>
-      </c>
-      <c r="T63" t="s">
-        <v>36</v>
-      </c>
-      <c r="U63" t="s">
-        <v>36</v>
-      </c>
-      <c r="V63" t="s">
-        <v>118</v>
-      </c>
-      <c r="W63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45099.620949074102</v>
-      </c>
-      <c r="C64" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" t="s">
-        <v>117</v>
-      </c>
-      <c r="K64" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" t="s">
-        <v>31</v>
-      </c>
-      <c r="O64" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>144</v>
-      </c>
-      <c r="R64" t="s">
-        <v>34</v>
-      </c>
-      <c r="S64" t="s">
-        <v>35</v>
-      </c>
-      <c r="T64" t="s">
-        <v>36</v>
-      </c>
-      <c r="U64" t="s">
-        <v>36</v>
-      </c>
-      <c r="V64" t="s">
-        <v>118</v>
-      </c>
-      <c r="W64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" t="s">
-        <v>117</v>
-      </c>
-      <c r="I65" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" t="s">
-        <v>117</v>
-      </c>
-      <c r="K65" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" t="s">
-        <v>60</v>
-      </c>
-      <c r="M65" t="s">
-        <v>30</v>
-      </c>
-      <c r="N65" t="s">
-        <v>31</v>
-      </c>
-      <c r="O65" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>144</v>
-      </c>
-      <c r="R65" t="s">
-        <v>34</v>
-      </c>
-      <c r="S65" t="s">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s">
-        <v>36</v>
-      </c>
-      <c r="U65" t="s">
-        <v>36</v>
-      </c>
-      <c r="V65" t="s">
-        <v>118</v>
-      </c>
-      <c r="W65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" t="s">
-        <v>117</v>
-      </c>
-      <c r="K66" t="s">
-        <v>28</v>
-      </c>
-      <c r="L66" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" t="s">
-        <v>30</v>
-      </c>
-      <c r="N66" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>144</v>
-      </c>
-      <c r="R66" t="s">
-        <v>34</v>
-      </c>
-      <c r="S66" t="s">
-        <v>35</v>
-      </c>
-      <c r="T66" t="s">
-        <v>36</v>
-      </c>
-      <c r="U66" t="s">
-        <v>36</v>
-      </c>
-      <c r="V66" t="s">
-        <v>118</v>
-      </c>
-      <c r="W66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" t="s">
-        <v>28</v>
-      </c>
-      <c r="L67" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" t="s">
-        <v>32</v>
-      </c>
-      <c r="P67" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>144</v>
-      </c>
-      <c r="R67" t="s">
-        <v>34</v>
-      </c>
-      <c r="S67" t="s">
-        <v>35</v>
-      </c>
-      <c r="T67" t="s">
-        <v>36</v>
-      </c>
-      <c r="U67" t="s">
-        <v>36</v>
-      </c>
-      <c r="V67" t="s">
-        <v>118</v>
-      </c>
-      <c r="W67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="1">
-        <v>45099.642037037003</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" t="s">
-        <v>117</v>
-      </c>
-      <c r="I68" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" t="s">
-        <v>117</v>
-      </c>
-      <c r="K68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" t="s">
-        <v>69</v>
-      </c>
-      <c r="M68" t="s">
-        <v>30</v>
-      </c>
-      <c r="N68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>144</v>
-      </c>
-      <c r="R68" t="s">
-        <v>34</v>
-      </c>
-      <c r="S68" t="s">
-        <v>35</v>
-      </c>
-      <c r="T68" t="s">
-        <v>36</v>
-      </c>
-      <c r="U68" t="s">
-        <v>36</v>
-      </c>
-      <c r="V68" t="s">
-        <v>118</v>
-      </c>
-      <c r="W68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="1">
-        <v>45099.642592592601</v>
-      </c>
-      <c r="C69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" t="s">
-        <v>117</v>
-      </c>
-      <c r="K69" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" t="s">
-        <v>74</v>
-      </c>
-      <c r="M69" t="s">
-        <v>30</v>
-      </c>
-      <c r="N69" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" t="s">
-        <v>32</v>
-      </c>
-      <c r="P69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>144</v>
-      </c>
-      <c r="R69" t="s">
-        <v>34</v>
-      </c>
-      <c r="S69" t="s">
-        <v>35</v>
-      </c>
-      <c r="T69" t="s">
-        <v>36</v>
-      </c>
-      <c r="U69" t="s">
-        <v>36</v>
-      </c>
-      <c r="V69" t="s">
-        <v>118</v>
-      </c>
-      <c r="W69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="1">
-        <v>45099.643703703703</v>
-      </c>
-      <c r="C70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s">
-        <v>117</v>
-      </c>
-      <c r="I70" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" t="s">
-        <v>117</v>
-      </c>
-      <c r="K70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L70" t="s">
-        <v>69</v>
-      </c>
-      <c r="M70" t="s">
-        <v>30</v>
-      </c>
-      <c r="N70" t="s">
-        <v>31</v>
-      </c>
-      <c r="O70" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>144</v>
-      </c>
-      <c r="R70" t="s">
-        <v>34</v>
-      </c>
-      <c r="S70" t="s">
-        <v>35</v>
-      </c>
-      <c r="T70" t="s">
-        <v>36</v>
-      </c>
-      <c r="U70" t="s">
-        <v>36</v>
-      </c>
-      <c r="V70" t="s">
-        <v>118</v>
-      </c>
-      <c r="W70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="1">
-        <v>45099.644201388903</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s">
-        <v>117</v>
-      </c>
-      <c r="I71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J71" t="s">
-        <v>117</v>
-      </c>
-      <c r="K71" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" t="s">
-        <v>30</v>
-      </c>
-      <c r="N71" t="s">
-        <v>31</v>
-      </c>
-      <c r="O71" t="s">
-        <v>32</v>
-      </c>
-      <c r="P71" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>144</v>
-      </c>
-      <c r="R71" t="s">
-        <v>34</v>
-      </c>
-      <c r="S71" t="s">
-        <v>35</v>
-      </c>
-      <c r="T71" t="s">
-        <v>36</v>
-      </c>
-      <c r="U71" t="s">
-        <v>36</v>
-      </c>
-      <c r="V71" t="s">
-        <v>118</v>
-      </c>
-      <c r="W71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="1">
-        <v>45099.644861111097</v>
-      </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" t="s">
-        <v>117</v>
-      </c>
-      <c r="I72" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" t="s">
-        <v>117</v>
-      </c>
-      <c r="K72" t="s">
-        <v>28</v>
-      </c>
-      <c r="L72" t="s">
-        <v>53</v>
-      </c>
-      <c r="M72" t="s">
-        <v>30</v>
-      </c>
-      <c r="N72" t="s">
-        <v>31</v>
-      </c>
-      <c r="O72" t="s">
-        <v>32</v>
-      </c>
-      <c r="P72" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>144</v>
-      </c>
-      <c r="R72" t="s">
-        <v>34</v>
-      </c>
-      <c r="S72" t="s">
-        <v>35</v>
-      </c>
-      <c r="T72" t="s">
-        <v>36</v>
-      </c>
-      <c r="U72" t="s">
-        <v>36</v>
-      </c>
-      <c r="V72" t="s">
-        <v>118</v>
-      </c>
-      <c r="W72" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +4083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -4984,7 +4186,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2">
         <v>45303.3187384259</v>
@@ -4993,16 +4195,16 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -5014,10 +4216,10 @@
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
@@ -5032,13 +4234,13 @@
         <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
         <v>36</v>
@@ -5055,7 +4257,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2">
         <v>45305.641666666699</v>
@@ -5064,16 +4266,16 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -5088,7 +4290,7 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -5103,7 +4305,7 @@
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
         <v>34</v>
@@ -5126,7 +4328,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2">
         <v>45305.662511574097</v>
@@ -5135,16 +4337,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -5159,7 +4361,7 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -5174,7 +4376,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
         <v>34</v>
@@ -5197,7 +4399,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2">
         <v>45305.579120370399</v>
@@ -5206,16 +4408,16 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -5245,7 +4447,7 @@
         <v>33</v>
       </c>
       <c r="Q6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
         <v>34</v>
@@ -5268,7 +4470,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2">
         <v>45305.599976851903</v>
@@ -5277,16 +4479,16 @@
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -5316,7 +4518,7 @@
         <v>33</v>
       </c>
       <c r="Q7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
         <v>34</v>
@@ -5339,7 +4541,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2">
         <v>45305.620821759301</v>
@@ -5348,16 +4550,16 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -5387,7 +4589,7 @@
         <v>33</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
         <v>34</v>
@@ -5410,7 +4612,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2">
         <v>45303.3187384259</v>
@@ -5419,28 +4621,28 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="T9" t="s">
         <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -5451,7 +4653,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2">
         <v>45303.3187384259</v>
@@ -5460,58 +4662,58 @@
         <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
         <v>121</v>
-      </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>144</v>
-      </c>
-      <c r="R10" t="s">
-        <v>114</v>
-      </c>
-      <c r="S10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" t="s">
-        <v>142</v>
       </c>
       <c r="V10" t="s">
         <v>36</v>
@@ -5522,7 +4724,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2">
         <v>45303.3187384259</v>
@@ -5531,58 +4733,58 @@
         <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>88</v>
-      </c>
-      <c r="U11" t="s">
-        <v>89</v>
       </c>
       <c r="V11" t="s">
         <v>36</v>
@@ -5593,7 +4795,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2">
         <v>45305.641666666699</v>
@@ -5602,58 +4804,58 @@
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
         <v>87</v>
       </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>144</v>
-      </c>
-      <c r="R12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>88</v>
-      </c>
-      <c r="U12" t="s">
-        <v>89</v>
       </c>
       <c r="V12" t="s">
         <v>36</v>
@@ -5664,7 +4866,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
         <v>45305.662511574097</v>
@@ -5673,58 +4875,58 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>144</v>
-      </c>
-      <c r="R13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>88</v>
-      </c>
-      <c r="U13" t="s">
-        <v>89</v>
       </c>
       <c r="V13" t="s">
         <v>36</v>
@@ -5735,7 +4937,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2">
         <v>45305.579120370399</v>
@@ -5744,25 +4946,25 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
         <v>28</v>
@@ -5783,7 +4985,7 @@
         <v>33</v>
       </c>
       <c r="Q14" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R14" t="s">
         <v>34</v>
@@ -5792,10 +4994,10 @@
         <v>35</v>
       </c>
       <c r="T14" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" t="s">
         <v>88</v>
-      </c>
-      <c r="U14" t="s">
-        <v>89</v>
       </c>
       <c r="V14" t="s">
         <v>36</v>
@@ -5806,7 +5008,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2">
         <v>45305.599976851903</v>
@@ -5815,25 +5017,25 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
@@ -5854,7 +5056,7 @@
         <v>33</v>
       </c>
       <c r="Q15" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R15" t="s">
         <v>34</v>
@@ -5863,10 +5065,10 @@
         <v>35</v>
       </c>
       <c r="T15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" t="s">
         <v>88</v>
-      </c>
-      <c r="U15" t="s">
-        <v>89</v>
       </c>
       <c r="V15" t="s">
         <v>36</v>
@@ -5877,7 +5079,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2">
         <v>45305.620821759301</v>
@@ -5886,25 +5088,25 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s">
         <v>28</v>
@@ -5925,7 +5127,7 @@
         <v>33</v>
       </c>
       <c r="Q16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
         <v>34</v>
@@ -5934,10 +5136,10 @@
         <v>35</v>
       </c>
       <c r="T16" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" t="s">
         <v>88</v>
-      </c>
-      <c r="U16" t="s">
-        <v>89</v>
       </c>
       <c r="V16" t="s">
         <v>36</v>
@@ -5948,7 +5150,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2">
         <v>45303.3187384259</v>
@@ -5957,22 +5159,22 @@
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="T17" t="s">
         <v>36</v>
@@ -5981,15 +5183,15 @@
         <v>36</v>
       </c>
       <c r="V17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="W17" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
         <v>45305.641666666699</v>
@@ -5998,31 +5200,31 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
         <v>30</v>
@@ -6037,7 +5239,7 @@
         <v>33</v>
       </c>
       <c r="Q18" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
@@ -6052,15 +5254,15 @@
         <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="W18" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2">
         <v>45305.662511574097</v>
@@ -6069,31 +5271,31 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
         <v>30</v>
@@ -6108,7 +5310,7 @@
         <v>33</v>
       </c>
       <c r="Q19" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R19" t="s">
         <v>34</v>
@@ -6123,15 +5325,15 @@
         <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="W19" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2">
         <v>45305.579120370399</v>
@@ -6140,25 +5342,25 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
@@ -6179,7 +5381,7 @@
         <v>33</v>
       </c>
       <c r="Q20" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R20" t="s">
         <v>34</v>
@@ -6194,15 +5396,15 @@
         <v>36</v>
       </c>
       <c r="V20" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="W20" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2">
         <v>45305.599976851903</v>
@@ -6211,25 +5413,25 @@
         <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
         <v>28</v>
@@ -6250,7 +5452,7 @@
         <v>33</v>
       </c>
       <c r="Q21" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R21" t="s">
         <v>34</v>
@@ -6265,15 +5467,15 @@
         <v>36</v>
       </c>
       <c r="V21" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="W21" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2">
         <v>45305.620821759301</v>
@@ -6282,25 +5484,25 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
         <v>28</v>
@@ -6321,7 +5523,7 @@
         <v>33</v>
       </c>
       <c r="Q22" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="R22" t="s">
         <v>34</v>
@@ -6336,10 +5538,10 @@
         <v>36</v>
       </c>
       <c r="V22" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="W22" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
